--- a/src/NTC/Calibratie.xlsx
+++ b/src/NTC/Calibratie.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tymek\Documents\School\HardwareInterfacing\caseStudy\his\src\NTC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18AA7C2-2FA5-4116-8817-55D7CFED58D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Blad1" sheetId="1" r:id="rId4"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -25,15 +34,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -43,35 +56,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -88,6 +114,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="nl-NL"/>
               <a:t>weerdstand versus temp in c</a:t>
             </a:r>
           </a:p>
@@ -95,9 +122,11 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -105,23 +134,99 @@
           <c:tx>
             <c:strRef>
               <c:f>Blad1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weerdstand</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Blad1!$A$4:$A$11</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>84722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27610</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6743</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7A8-410A-8561-7B3E4D5B4556}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="682564254"/>
         <c:axId val="1207608665"/>
       </c:lineChart>
@@ -147,6 +252,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="nl-NL"/>
                   <a:t>temp in c</a:t>
                 </a:r>
               </a:p>
@@ -154,6 +260,10 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -166,9 +276,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1207608665"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1207608665"/>
@@ -212,6 +328,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="nl-NL"/>
                   <a:t>weerdstand</a:t>
                 </a:r>
               </a:p>
@@ -220,6 +337,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -238,9 +357,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="682564254"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -258,16 +380,24 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -276,9 +406,15 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5734050" cy="3629025"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Diagram"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Diagram">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -287,7 +423,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -297,7 +433,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -487,25 +623,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -513,71 +654,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>-24.0</v>
+        <v>-24</v>
       </c>
       <c r="B4" s="1">
-        <v>84722.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>84722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>-14.0</v>
+        <v>-14</v>
       </c>
       <c r="B5" s="1">
-        <v>55577.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>55577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="B6" s="1">
-        <v>34669.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>34669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>27610.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>27610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
-        <v>11400.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>9750.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1">
-        <v>7650.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
-        <v>6743.0</v>
+        <v>6743</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/NTC/Calibratie.xlsx
+++ b/src/NTC/Calibratie.xlsx
@@ -8,27 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tymek\Documents\School\HardwareInterfacing\caseStudy\his\src\NTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18AA7C2-2FA5-4116-8817-55D7CFED58D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD14BC-40C2-4AD0-980D-62D4DCE3C4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Als r1 een weerstand van 100,000 ohm is</t>
+    <t>a</t>
   </si>
   <si>
-    <t>temp in c</t>
+    <t>b</t>
   </si>
   <si>
-    <t>weerdstand</t>
+    <t>c</t>
+  </si>
+  <si>
+    <t>weerstand in ohm</t>
+  </si>
+  <si>
+    <t>temp in Celsius</t>
   </si>
 </sst>
 </file>
@@ -71,10 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -125,8 +142,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -137,15 +154,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>weerdstand</c:v>
+                  <c:v>weerstand in ohm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Blad1!$A$4:$A$11</c:f>
               <c:numCache>
@@ -177,8 +191,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Blad1!$B$4:$B$11</c:f>
               <c:numCache>
@@ -210,11 +224,90 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F7A8-410A-8561-7B3E4D5B4556}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>steinhart</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$D$4:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-23.295474580803216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.778590706633452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.730092096550095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32635677910212735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.404803436929456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.388752905373053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.73759017684489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.124712012189207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>84722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27610</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36A7-43FD-94B4-D93BACD0D3A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -226,11 +319,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="682564254"/>
         <c:axId val="1207608665"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="682564254"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -253,7 +345,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL"/>
-                  <a:t>temp in c</a:t>
+                  <a:t>temp in Celsius</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -281,11 +373,8 @@
         </c:txPr>
         <c:crossAx val="1207608665"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1207608665"/>
         <c:scaling>
@@ -361,8 +450,8 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="682564254"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossesAt val="-1.0000000000000006E+99"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -400,10 +489,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5734050" cy="3629025"/>
     <xdr:graphicFrame macro="">
@@ -633,89 +722,175 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" s="3">
+        <v>1.0089999999999999E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.3780000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3" s="3">
+        <v>2.019E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>-24</v>
       </c>
       <c r="B4" s="1">
         <v>84722</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <f>LN(B4)</f>
+        <v>11.347130587173226</v>
+      </c>
+      <c r="D4">
+        <f>1/($D$1+$D$2*C4+$D$3*C4^3)-273.15</f>
+        <v>-23.295474580803216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>-14</v>
       </c>
       <c r="B5" s="1">
         <v>55577</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C11" si="0">LN(B5)</f>
+        <v>10.925524725589275</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D11" si="1">1/($D$1+$D$2*C5+$D$3*C5^3)-273.15</f>
+        <v>-14.778590706633452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>-5</v>
       </c>
       <c r="B6" s="1">
         <v>34669</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>10.453601194882646</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-4.730092096550095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>27610</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>10.225933304924201</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.32635677910212735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>11400</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3413686343825866</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>21.404803436929456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>9750</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1850225639918932</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>25.388752905373053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>7650</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9424609268205817</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>31.73759017684489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>35</v>
       </c>
       <c r="B11" s="1">
         <v>6743</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8162602087345814</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>35.124712012189207</v>
       </c>
     </row>
   </sheetData>

--- a/src/NTC/Calibratie.xlsx
+++ b/src/NTC/Calibratie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tymek\Documents\School\HardwareInterfacing\caseStudy\his\src\NTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD14BC-40C2-4AD0-980D-62D4DCE3C4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF8BB28-E21E-46D2-A784-9330607B8B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -418,8 +418,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL"/>
-                  <a:t>weerdstand</a:t>
+                  <a:t>weerdstand in</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> ohm</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -725,7 +730,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -734,7 +739,7 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
@@ -751,7 +756,7 @@
         <v>2.3780000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -765,7 +770,7 @@
         <v>2.019E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>-24</v>
       </c>
@@ -781,7 +786,7 @@
         <v>-23.295474580803216</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>-14</v>
       </c>
@@ -797,7 +802,7 @@
         <v>-14.778590706633452</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>-5</v>
       </c>
@@ -813,7 +818,7 @@
         <v>-4.730092096550095</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -829,7 +834,7 @@
         <v>0.32635677910212735</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>21</v>
       </c>
@@ -845,7 +850,7 @@
         <v>21.404803436929456</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>25</v>
       </c>
@@ -861,7 +866,7 @@
         <v>25.388752905373053</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>30</v>
       </c>
@@ -877,7 +882,7 @@
         <v>31.73759017684489</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>35</v>
       </c>
